--- a/PV_investment.xlsx
+++ b/PV_investment.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egat\Documents\GitHub\PRJ_load_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC063BF-4C3C-4021-B45F-D173224D72B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE80DC6-22F9-49FC-9263-313470B0B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="576" xr2:uid="{59372614-44CA-4F83-BFD1-A3BEAAFB92EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{854BCA3E-613D-4329-A0D7-BF36F614DB11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$L$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,25 +37,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
-    <t>invest</t>
+    <t xml:space="preserve">case </t>
   </si>
   <si>
-    <t>expected return</t>
+    <t>PV</t>
   </si>
   <si>
-    <t>only PV</t>
+    <t>batt</t>
   </si>
   <si>
-    <t>PV with Batt</t>
+    <t>install</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>onlyPV</t>
+  </si>
+  <si>
+    <t>at par</t>
+  </si>
+  <si>
+    <t>only PV actual</t>
+  </si>
+  <si>
+    <t>only PV expected</t>
+  </si>
+  <si>
+    <t>PV Batt actual</t>
+  </si>
+  <si>
+    <t>manual input</t>
+  </si>
+  <si>
+    <t>*set same scale</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>*ignore installation area condition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +109,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
@@ -89,16 +142,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,8 +206,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PV Investment</a:t>
+              <a:t>Comparison</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of PV and Battery Investment </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -185,271 +248,111 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>expected return</c:v>
+                  <c:v>only PV expected</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$17</c:f>
+              <c:f>Sheet1!$O$5:$O$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>4800000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>6400000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>9600000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>12800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>19200000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>25600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7733774.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10311699.733333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15467549.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20623399.466666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25779249.333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30935099.199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41246798.93333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5983-4A15-8B11-A45BE4275169}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>only PV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>711</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>792</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>815.99999999999989</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>885.00000000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5983-4A15-8B11-A45BE4275169}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PV with Batt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$3:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>679</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>837</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1004.9999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5983-4A15-8B11-A45BE4275169}"/>
+              <c16:uniqueId val="{00000004-5A69-4217-A3DD-C743C9763BAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -461,17 +364,1259 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="724162416"/>
-        <c:axId val="724158256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="724162416"/>
+        <c:axId val="251774320"/>
+        <c:axId val="85371264"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="sq">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5A69-4217-A3DD-C743C9763BAF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-5A69-4217-A3DD-C743C9763BAF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-5A69-4217-A3DD-C743C9763BAF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5A69-4217-A3DD-C743C9763BAF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5A69-4217-A3DD-C743C9763BAF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-5A69-4217-A3DD-C743C9763BAF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2250000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6300000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7050000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10800000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12300000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18300000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7900000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8650000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9400000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10900000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12400000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13900000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19900000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11100000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11850000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12600000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14100000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15600000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17100000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23100000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14300000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15050000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15800000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18800000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20300000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26300000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18250000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20500000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23500000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29500000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19200000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>661720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>843470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1149940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1369890</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1502820</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1639630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7733774.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8791204.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9191654.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9520894.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9999724.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10304774.800000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10480774.800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10657054.800000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9754400.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10896210.199999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11359110.199999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11755740.199999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12377130.199999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12824530.199999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13145380.199999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13614170.199999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13109435.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14293515.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14803095.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15272645.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16110975.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16838925.900000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17472565.900000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19019935.900000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15626109.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16806379.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17336009.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17837739.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18779319.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19659129.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20472529.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23123959.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17659604.099999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18814324.099999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19352694.099999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19873424.099999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20875244.099999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21835734.100000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22752574.100000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26059904.100000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19198410.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21298128.700000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A69-4217-A3DD-C743C9763BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="253913152"/>
+        <c:axId val="418475872"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>only PV actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7733774.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9754400.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13109435.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15626109.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17659604.099999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19198410.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21298128.700000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A69-4217-A3DD-C743C9763BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV Batt actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-5A69-4217-A3DD-C743C9763BAF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7733774.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9754400.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13109435.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15626109.5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>18100000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>20100000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>24000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5A69-4217-A3DD-C743C9763BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="253913152"/>
+        <c:axId val="418475872"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>at par</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$4:$G$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1500000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2250000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7500000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4800000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6300000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7050000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7800000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9300000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10800000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>12300000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>18300000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6400000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7900000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8650000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>9400000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>10900000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>12400000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>13900000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>19900000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>9600000</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>11100000</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>11850000</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>12600000</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>14100000</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>15600000</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>17100000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>23100000</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>12800000</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>14300000</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>15050000</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>15800000</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>17300000</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>18800000</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>20300000</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>26300000</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>16000000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>17500000</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>18250000</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>19000000</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>20500000</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>22000000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>23500000</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>29500000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>19200000</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>25600000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$4:$K$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1500000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2250000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7500000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4800000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6300000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7050000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7800000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9300000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10800000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>12300000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>18300000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6400000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7900000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8650000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>9400000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>10900000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>12400000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>13900000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>19900000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>9600000</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>11100000</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>11850000</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>12600000</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>14100000</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>15600000</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>17100000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>23100000</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>12800000</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>14300000</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>15050000</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>15800000</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>17300000</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>18800000</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>20300000</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>26300000</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>16000000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>17500000</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>18250000</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>19000000</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>20500000</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>22000000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>23500000</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>29500000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>19200000</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>25600000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5A69-4217-A3DD-C743C9763BAF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="251774320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Investment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="93000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -480,8 +1625,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -508,15 +1653,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="724158256"/>
+        <c:crossAx val="85371264"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5000000"/>
+        <c:minorUnit val="1000000"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="724158256"/>
+        <c:axId val="85371264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,14 +1680,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Benefit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -567,9 +1772,108 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="724162416"/>
+        <c:crossAx val="251774320"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="418475872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253913152"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253913152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418475872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5000000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -580,7 +1884,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -695,7 +1999,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -722,8 +2026,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -803,11 +2107,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -818,11 +2117,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -834,7 +2128,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -854,9 +2148,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -869,10 +2160,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -912,22 +2203,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1032,8 +2324,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1165,19 +2457,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1191,6 +2484,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1214,23 +2518,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>253007</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAD0907-4F42-463E-8607-BF3D9E1F19C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DECBA93-D9BA-BF8A-2054-042887104782}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,463 +2851,1971 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491EF657-3C93-412C-8C26-81367BAAA810}">
-  <dimension ref="B2:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43F18F2-D837-4D62-96EC-49C5F989610D}">
+  <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="M10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:19">
+      <c r="E1">
+        <v>32000</v>
+      </c>
+      <c r="F1">
+        <v>15000</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>C4*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f>E4+F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f>(H4+I4)*$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>100</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E6" si="0">1-D3</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f>C3*E3</f>
+      <c r="E5">
+        <f>C5*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>D5*F$1</f>
+        <v>1500000</v>
+      </c>
+      <c r="G5" s="3">
+        <f>E5+F5</f>
+        <v>1500000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>46033</v>
+      </c>
+      <c r="J5" s="2">
+        <f>(H5+I5)*$J$1</f>
+        <v>460330</v>
+      </c>
+      <c r="K5" s="4">
+        <f>G5</f>
+        <v>1500000</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="O5" s="3">
+        <f>G12</f>
+        <v>4800000</v>
+      </c>
+      <c r="P5" s="3">
+        <f>J12</f>
+        <v>7733774.7999999998</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>P5</f>
+        <v>7733774.7999999998</v>
+      </c>
+      <c r="R5" s="3">
+        <f>P5</f>
+        <v>7733774.7999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f>C6*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>D6*F$1</f>
+        <v>2250000</v>
+      </c>
+      <c r="G6" s="3">
+        <f>E6+F6</f>
+        <v>2250000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>66172</v>
+      </c>
+      <c r="J6" s="2">
+        <f>(H6+I6)*$J$1</f>
+        <v>661720</v>
+      </c>
+      <c r="K6" s="4">
+        <f>G6</f>
+        <v>2250000</v>
+      </c>
+      <c r="O6" s="3">
+        <f>G20</f>
+        <v>6400000</v>
+      </c>
+      <c r="P6" s="3">
+        <f>J20</f>
+        <v>9754400.1999999993</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>_xlfn.FORECAST.LINEAR(O6,$P$4:P$5,O$4:O$5)</f>
+        <v>10311699.733333332</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R8" si="0">P6</f>
+        <v>9754400.1999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <f>C7*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>D7*F$1</f>
+        <v>3000000</v>
+      </c>
+      <c r="G7" s="3">
+        <f>E7+F7</f>
+        <v>3000000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>84347</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J53" si="1">(H7+I7)*$J$1</f>
+        <v>843470</v>
+      </c>
+      <c r="K7" s="4">
+        <f>G7</f>
+        <v>3000000</v>
+      </c>
+      <c r="O7" s="3">
+        <f>G28</f>
+        <v>9600000</v>
+      </c>
+      <c r="P7" s="3">
+        <f>J28</f>
+        <v>13109435.9</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>_xlfn.FORECAST.LINEAR(O7,$P$4:P$5,O$4:O$5)</f>
+        <v>15467549.6</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="0"/>
+        <v>13109435.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <f>C8*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>D8*F$1</f>
+        <v>4500000</v>
+      </c>
+      <c r="G8" s="3">
+        <f>E8+F8</f>
+        <v>4500000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>114994</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>1149940</v>
+      </c>
+      <c r="K8" s="4">
+        <f>G8</f>
+        <v>4500000</v>
+      </c>
+      <c r="O8" s="3">
+        <f>G36</f>
+        <v>12800000</v>
+      </c>
+      <c r="P8" s="3">
+        <f>J36</f>
+        <v>15626109.5</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>_xlfn.FORECAST.LINEAR(O8,$P$4:P$5,O$4:O$5)</f>
+        <v>20623399.466666665</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="0"/>
+        <v>15626109.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <f>C9*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>D9*F$1</f>
+        <v>6000000</v>
+      </c>
+      <c r="G9" s="3">
+        <f>E9+F9</f>
+        <v>6000000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>136989</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>1369890</v>
+      </c>
+      <c r="K9" s="4">
+        <f>G9</f>
+        <v>6000000</v>
+      </c>
+      <c r="O9" s="3">
+        <f>G44</f>
+        <v>16000000</v>
+      </c>
+      <c r="P9" s="3">
+        <f>J44</f>
+        <v>17659604.099999998</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>_xlfn.FORECAST.LINEAR(O9,$P$4:P$5,O$4:O$5)</f>
+        <v>25779249.333333332</v>
+      </c>
+      <c r="R9" s="6">
+        <v>18100000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <f>C10*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>D10*F$1</f>
+        <v>7500000</v>
+      </c>
+      <c r="G10" s="3">
+        <f>E10+F10</f>
+        <v>7500000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>150282</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>1502820</v>
+      </c>
+      <c r="K10" s="4">
+        <f>G10</f>
+        <v>7500000</v>
+      </c>
+      <c r="O10" s="3">
+        <f>G52</f>
+        <v>19200000</v>
+      </c>
+      <c r="P10" s="3">
+        <f>J52</f>
+        <v>19198410.5</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>_xlfn.FORECAST.LINEAR(O10,$P$4:P$5,O$4:O$5)</f>
+        <v>30935099.199999999</v>
+      </c>
+      <c r="R10" s="6">
+        <v>20100000</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>900</v>
+      </c>
+      <c r="E11">
+        <f>C11*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>D11*F$1</f>
+        <v>13500000</v>
+      </c>
+      <c r="G11" s="3">
+        <f>E11+F11</f>
+        <v>13500000</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>163963</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>1639630</v>
+      </c>
+      <c r="K11" s="4">
+        <f>G11</f>
+        <v>13500000</v>
+      </c>
+      <c r="O11" s="3">
+        <f>G53</f>
+        <v>25600000</v>
+      </c>
+      <c r="P11" s="3">
+        <f>J53</f>
+        <v>21298128.700000003</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>_xlfn.FORECAST.LINEAR(O11,$P$4:P$5,O$4:O$5)</f>
+        <v>41246798.93333333</v>
+      </c>
+      <c r="R11" s="6">
+        <v>24000000</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>C12*E$1</f>
+        <v>4800000</v>
+      </c>
+      <c r="F12">
+        <f>D12*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f>E12+F12</f>
+        <v>4800000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>773377.48</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>7733774.7999999998</v>
+      </c>
+      <c r="K12" s="4">
+        <f>G12</f>
+        <v>4800000</v>
+      </c>
+      <c r="L12" s="2">
+        <f>J12</f>
+        <v>7733774.7999999998</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H6" si="1">1-G3</f>
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f>C3*H3</f>
+      <c r="E13">
+        <f>C13*E$1</f>
+        <v>4800000</v>
+      </c>
+      <c r="F13">
+        <f>D13*F$1</f>
+        <v>1500000</v>
+      </c>
+      <c r="G13" s="3">
+        <f>E13+F13</f>
+        <v>6300000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>773377.48</v>
+      </c>
+      <c r="I13" s="2">
+        <v>105743</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>8791204.8000000007</v>
+      </c>
+      <c r="K13" s="4">
+        <f>G13</f>
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <f>C14*E$1</f>
+        <v>4800000</v>
+      </c>
+      <c r="F14">
+        <f>D14*F$1</f>
+        <v>2250000</v>
+      </c>
+      <c r="G14" s="3">
+        <f>E14+F14</f>
+        <v>7050000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>773377.48</v>
+      </c>
+      <c r="I14" s="2">
+        <v>145788</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>9191654.8000000007</v>
+      </c>
+      <c r="K14" s="4">
+        <f>G14</f>
+        <v>7050000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <f>C15*E$1</f>
+        <v>4800000</v>
+      </c>
+      <c r="F15">
+        <f>D15*F$1</f>
+        <v>3000000</v>
+      </c>
+      <c r="G15" s="3">
+        <f>E15+F15</f>
+        <v>7800000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>773377.48</v>
+      </c>
+      <c r="I15" s="2">
+        <v>178712</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>9520894.8000000007</v>
+      </c>
+      <c r="K15" s="4">
+        <f>G15</f>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+      <c r="E16">
+        <f>C16*E$1</f>
+        <v>4800000</v>
+      </c>
+      <c r="F16">
+        <f>D16*F$1</f>
+        <v>4500000</v>
+      </c>
+      <c r="G16" s="3">
+        <f>E16+F16</f>
+        <v>9300000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>773377.48</v>
+      </c>
+      <c r="I16" s="2">
+        <v>226595</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>9999724.8000000007</v>
+      </c>
+      <c r="K16" s="4">
+        <f>G16</f>
+        <v>9300000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+      <c r="E17">
+        <f>C17*E$1</f>
+        <v>4800000</v>
+      </c>
+      <c r="F17">
+        <f>D17*F$1</f>
+        <v>6000000</v>
+      </c>
+      <c r="G17" s="3">
+        <f>E17+F17</f>
+        <v>10800000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>773377.48</v>
+      </c>
+      <c r="I17" s="2">
+        <v>257100</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>10304774.800000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f>G17</f>
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <f>C18*E$1</f>
+        <v>4800000</v>
+      </c>
+      <c r="F18">
+        <f>D18*F$1</f>
+        <v>7500000</v>
+      </c>
+      <c r="G18" s="3">
+        <f>E18+F18</f>
+        <v>12300000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>773377.48</v>
+      </c>
+      <c r="I18" s="2">
+        <v>274700</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>10480774.800000001</v>
+      </c>
+      <c r="K18" s="4">
+        <f>G18</f>
+        <v>12300000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>900</v>
+      </c>
+      <c r="E19">
+        <f>C19*E$1</f>
+        <v>4800000</v>
+      </c>
+      <c r="F19">
+        <f>D19*F$1</f>
+        <v>13500000</v>
+      </c>
+      <c r="G19" s="3">
+        <f>E19+F19</f>
+        <v>18300000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>773377.48</v>
+      </c>
+      <c r="I19" s="2">
+        <v>292328</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>10657054.800000001</v>
+      </c>
+      <c r="K19" s="4">
+        <f>G19</f>
+        <v>18300000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>C20*E$1</f>
+        <v>6400000</v>
+      </c>
+      <c r="F20">
+        <f>D20*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f>E20+F20</f>
+        <v>6400000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>975440.02</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>9754400.1999999993</v>
+      </c>
+      <c r="K20" s="4">
+        <f>G20</f>
+        <v>6400000</v>
+      </c>
+      <c r="L20" s="4">
+        <f>J20</f>
+        <v>9754400.1999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="E21">
+        <f>C21*E$1</f>
+        <v>6400000</v>
+      </c>
+      <c r="F21">
+        <f>D21*F$1</f>
+        <v>1500000</v>
+      </c>
+      <c r="G21" s="3">
+        <f>E21+F21</f>
+        <v>7900000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>975440.02</v>
+      </c>
+      <c r="I21" s="2">
+        <v>114181</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>10896210.199999999</v>
+      </c>
+      <c r="K21" s="4">
+        <f>G21</f>
+        <v>7900000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22">
         <v>200</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F17" si="2">C4*E4</f>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <f>C22*E$1</f>
+        <v>6400000</v>
+      </c>
+      <c r="F22">
+        <f>D22*F$1</f>
+        <v>2250000</v>
+      </c>
+      <c r="G22" s="3">
+        <f>E22+F22</f>
+        <v>8650000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>975440.02</v>
+      </c>
+      <c r="I22" s="2">
+        <v>160471</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>11359110.199999999</v>
+      </c>
+      <c r="K22" s="4">
+        <f>G22</f>
+        <v>8650000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23">
         <v>200</v>
       </c>
-      <c r="H4" s="2">
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <f>C23*E$1</f>
+        <v>6400000</v>
+      </c>
+      <c r="F23">
+        <f>D23*F$1</f>
+        <v>3000000</v>
+      </c>
+      <c r="G23" s="3">
+        <f>E23+F23</f>
+        <v>9400000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>975440.02</v>
+      </c>
+      <c r="I23" s="2">
+        <v>200134</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I17" si="3">C4*H4</f>
+        <v>11755740.199999999</v>
+      </c>
+      <c r="K23" s="4">
+        <f>G23</f>
+        <v>9400000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
+      <c r="D24">
         <v>300</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
+      <c r="E24">
+        <f>C24*E$1</f>
+        <v>6400000</v>
+      </c>
+      <c r="F24">
+        <f>D24*F$1</f>
+        <v>4500000</v>
+      </c>
+      <c r="G24" s="3">
+        <f>E24+F24</f>
+        <v>10900000</v>
+      </c>
+      <c r="H24" s="1">
+        <v>975440.02</v>
+      </c>
+      <c r="I24" s="2">
+        <v>262273</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>12377130.199999999</v>
+      </c>
+      <c r="K24" s="4">
+        <f>G24</f>
+        <v>10900000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <f>C25*E$1</f>
+        <v>6400000</v>
+      </c>
+      <c r="F25">
+        <f>D25*F$1</f>
+        <v>6000000</v>
+      </c>
+      <c r="G25" s="3">
+        <f>E25+F25</f>
+        <v>12400000</v>
+      </c>
+      <c r="H25" s="1">
+        <v>975440.02</v>
+      </c>
+      <c r="I25" s="2">
+        <v>307013</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>12824530.199999999</v>
+      </c>
+      <c r="K25" s="4">
+        <f>G25</f>
+        <v>12400000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26">
+        <f>C26*E$1</f>
+        <v>6400000</v>
+      </c>
+      <c r="F26">
+        <f>D26*F$1</f>
+        <v>7500000</v>
+      </c>
+      <c r="G26" s="3">
+        <f>E26+F26</f>
+        <v>13900000</v>
+      </c>
+      <c r="H26" s="1">
+        <v>975440.02</v>
+      </c>
+      <c r="I26" s="2">
+        <v>339098</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>13145380.199999999</v>
+      </c>
+      <c r="K26" s="4">
+        <f>G26</f>
+        <v>13900000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <v>900</v>
+      </c>
+      <c r="E27">
+        <f>C27*E$1</f>
+        <v>6400000</v>
+      </c>
+      <c r="F27">
+        <f>D27*F$1</f>
+        <v>13500000</v>
+      </c>
+      <c r="G27" s="3">
+        <f>E27+F27</f>
+        <v>19900000</v>
+      </c>
+      <c r="H27" s="1">
+        <v>975440.02</v>
+      </c>
+      <c r="I27" s="2">
+        <v>385977</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>13614170.199999999</v>
+      </c>
+      <c r="K27" s="4">
+        <f>G27</f>
+        <v>19900000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28">
         <v>300</v>
       </c>
-      <c r="H5" s="2">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>C28*E$1</f>
+        <v>9600000</v>
+      </c>
+      <c r="F28">
+        <f>D28*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f>E28+F28</f>
+        <v>9600000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
+        <v>13109435.9</v>
+      </c>
+      <c r="K28" s="4">
+        <f>G28</f>
+        <v>9600000</v>
+      </c>
+      <c r="L28" s="4">
+        <f>J28</f>
+        <v>13109435.9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <f>C29*E$1</f>
+        <v>9600000</v>
+      </c>
+      <c r="F29">
+        <f>D29*F$1</f>
+        <v>1500000</v>
+      </c>
+      <c r="G29" s="3">
+        <f>E29+F29</f>
+        <v>11100000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I29" s="2">
+        <v>118408</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>14293515.9</v>
+      </c>
+      <c r="K29" s="4">
+        <f>G29</f>
+        <v>11100000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30">
+        <v>300</v>
+      </c>
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <f>C30*E$1</f>
+        <v>9600000</v>
+      </c>
+      <c r="F30">
+        <f>D30*F$1</f>
+        <v>2250000</v>
+      </c>
+      <c r="G30" s="3">
+        <f>E30+F30</f>
+        <v>11850000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I30" s="2">
+        <v>169366</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>14803095.9</v>
+      </c>
+      <c r="K30" s="4">
+        <f>G30</f>
+        <v>11850000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31">
+        <v>300</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <f>C31*E$1</f>
+        <v>9600000</v>
+      </c>
+      <c r="F31">
+        <f>D31*F$1</f>
+        <v>3000000</v>
+      </c>
+      <c r="G31" s="3">
+        <f>E31+F31</f>
+        <v>12600000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I31" s="2">
+        <v>216321</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>15272645.9</v>
+      </c>
+      <c r="K31" s="4">
+        <f>G31</f>
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32">
+        <v>300</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="E32">
+        <f>C32*E$1</f>
+        <v>9600000</v>
+      </c>
+      <c r="F32">
+        <f>D32*F$1</f>
+        <v>4500000</v>
+      </c>
+      <c r="G32" s="3">
+        <f>E32+F32</f>
+        <v>14100000</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>300154</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>16110975.9</v>
+      </c>
+      <c r="K32" s="4">
+        <f>G32</f>
+        <v>14100000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33">
+        <v>300</v>
+      </c>
+      <c r="D33">
         <v>400</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
+      <c r="E33">
+        <f>C33*E$1</f>
+        <v>9600000</v>
+      </c>
+      <c r="F33">
+        <f>D33*F$1</f>
+        <v>6000000</v>
+      </c>
+      <c r="G33" s="3">
+        <f>E33+F33</f>
+        <v>15600000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I33" s="2">
+        <v>372949</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>16838925.900000002</v>
+      </c>
+      <c r="K33" s="4">
+        <f>G33</f>
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34">
+        <v>300</v>
+      </c>
+      <c r="D34">
+        <v>500</v>
+      </c>
+      <c r="E34">
+        <f>C34*E$1</f>
+        <v>9600000</v>
+      </c>
+      <c r="F34">
+        <f>D34*F$1</f>
+        <v>7500000</v>
+      </c>
+      <c r="G34" s="3">
+        <f>E34+F34</f>
+        <v>17100000</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I34" s="2">
+        <v>436313</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>17472565.900000002</v>
+      </c>
+      <c r="K34" s="4">
+        <f>G34</f>
+        <v>17100000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35">
+        <v>300</v>
+      </c>
+      <c r="D35">
+        <v>900</v>
+      </c>
+      <c r="E35">
+        <f>C35*E$1</f>
+        <v>9600000</v>
+      </c>
+      <c r="F35">
+        <f>D35*F$1</f>
+        <v>13500000</v>
+      </c>
+      <c r="G35" s="3">
+        <f>E35+F35</f>
+        <v>23100000</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>591050</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>19019935.900000002</v>
+      </c>
+      <c r="K35" s="4">
+        <f>G35</f>
+        <v>23100000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36">
         <v>400</v>
       </c>
-      <c r="H6" s="2">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>C36*E$1</f>
+        <v>12800000</v>
+      </c>
+      <c r="F36">
+        <f>D36*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <f>E36+F36</f>
+        <v>12800000</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1562610.95</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
+        <v>15626109.5</v>
+      </c>
+      <c r="K36" s="4">
+        <f>G36</f>
+        <v>12800000</v>
+      </c>
+      <c r="L36" s="4">
+        <f>J36</f>
+        <v>15626109.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <f>C37*E$1</f>
+        <v>12800000</v>
+      </c>
+      <c r="F37">
+        <f>D37*F$1</f>
+        <v>1500000</v>
+      </c>
+      <c r="G37" s="3">
+        <f>E37+F37</f>
+        <v>14300000</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1562610.95</v>
+      </c>
+      <c r="I37" s="2">
+        <v>118027</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>16806379.5</v>
+      </c>
+      <c r="K37" s="4">
+        <f>G37</f>
+        <v>14300000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38">
+        <v>400</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
+      </c>
+      <c r="E38">
+        <f>C38*E$1</f>
+        <v>12800000</v>
+      </c>
+      <c r="F38">
+        <f>D38*F$1</f>
+        <v>2250000</v>
+      </c>
+      <c r="G38" s="3">
+        <f>E38+F38</f>
+        <v>15050000</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1562610.95</v>
+      </c>
+      <c r="I38" s="2">
+        <v>170990</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>17336009.5</v>
+      </c>
+      <c r="K38" s="4">
+        <f>G38</f>
+        <v>15050000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39">
+        <v>400</v>
+      </c>
+      <c r="D39">
+        <v>200</v>
+      </c>
+      <c r="E39">
+        <f>C39*E$1</f>
+        <v>12800000</v>
+      </c>
+      <c r="F39">
+        <f>D39*F$1</f>
+        <v>3000000</v>
+      </c>
+      <c r="G39" s="3">
+        <f>E39+F39</f>
+        <v>15800000</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1562610.95</v>
+      </c>
+      <c r="I39" s="2">
+        <v>221163</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>17837739.5</v>
+      </c>
+      <c r="K39" s="4">
+        <f>G39</f>
+        <v>15800000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40">
+        <v>400</v>
+      </c>
+      <c r="D40">
+        <v>300</v>
+      </c>
+      <c r="E40">
+        <f>C40*E$1</f>
+        <v>12800000</v>
+      </c>
+      <c r="F40">
+        <f>D40*F$1</f>
+        <v>4500000</v>
+      </c>
+      <c r="G40" s="3">
+        <f>E40+F40</f>
+        <v>17300000</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1562610.95</v>
+      </c>
+      <c r="I40" s="2">
+        <v>315321</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>18779319.5</v>
+      </c>
+      <c r="K40" s="4">
+        <f>G40</f>
+        <v>17300000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41">
+        <v>400</v>
+      </c>
+      <c r="D41">
+        <v>400</v>
+      </c>
+      <c r="E41">
+        <f>C41*E$1</f>
+        <v>12800000</v>
+      </c>
+      <c r="F41">
+        <f>D41*F$1</f>
+        <v>6000000</v>
+      </c>
+      <c r="G41" s="3">
+        <f>E41+F41</f>
+        <v>18800000</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1562610.95</v>
+      </c>
+      <c r="I41" s="2">
+        <v>403302</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>19659129.5</v>
+      </c>
+      <c r="K41" s="4">
+        <f>G41</f>
+        <v>18800000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42">
+        <v>400</v>
+      </c>
+      <c r="D42">
         <v>500</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="2">
-        <f>1-D7</f>
-        <v>0.95</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>475</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2">
-        <f>1-G7</f>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
+      <c r="E42">
+        <f>C42*E$1</f>
+        <v>12800000</v>
+      </c>
+      <c r="F42">
+        <f>D42*F$1</f>
+        <v>7500000</v>
+      </c>
+      <c r="G42" s="3">
+        <f>E42+F42</f>
+        <v>20300000</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1562610.95</v>
+      </c>
+      <c r="I42" s="2">
+        <v>484642</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>20472529.5</v>
+      </c>
+      <c r="K42" s="4">
+        <f>G42</f>
+        <v>20300000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43">
+        <v>400</v>
+      </c>
+      <c r="D43">
+        <v>900</v>
+      </c>
+      <c r="E43">
+        <f>C43*E$1</f>
+        <v>12800000</v>
+      </c>
+      <c r="F43">
+        <f>D43*F$1</f>
+        <v>13500000</v>
+      </c>
+      <c r="G43" s="3">
+        <f>E43+F43</f>
+        <v>26300000</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1562610.95</v>
+      </c>
+      <c r="I43" s="2">
+        <v>749785</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>23123959.5</v>
+      </c>
+      <c r="K43" s="4">
+        <f>G43</f>
+        <v>26300000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>C44*E$1</f>
+        <v>16000000</v>
+      </c>
+      <c r="F44">
+        <f>D44*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f>E44+F44</f>
+        <v>16000000</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1765960.41</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>17659604.099999998</v>
+      </c>
+      <c r="K44" s="4">
+        <f>G44</f>
+        <v>16000000</v>
+      </c>
+      <c r="L44" s="4">
+        <f>J44</f>
+        <v>17659604.099999998</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45">
+        <v>500</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <f>C45*E$1</f>
+        <v>16000000</v>
+      </c>
+      <c r="F45">
+        <f>D45*F$1</f>
+        <v>1500000</v>
+      </c>
+      <c r="G45" s="3">
+        <f>E45+F45</f>
+        <v>17500000</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1765960.41</v>
+      </c>
+      <c r="I45" s="2">
+        <v>115472</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="1"/>
+        <v>18814324.099999998</v>
+      </c>
+      <c r="K45" s="4">
+        <f>G45</f>
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46">
+        <v>150</v>
+      </c>
+      <c r="E46">
+        <f>C46*E$1</f>
+        <v>16000000</v>
+      </c>
+      <c r="F46">
+        <f>D46*F$1</f>
+        <v>2250000</v>
+      </c>
+      <c r="G46" s="3">
+        <f>E46+F46</f>
+        <v>18250000</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1765960.41</v>
+      </c>
+      <c r="I46" s="2">
+        <v>169309</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="1"/>
+        <v>19352694.099999998</v>
+      </c>
+      <c r="K46" s="4">
+        <f>G46</f>
+        <v>18250000</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47">
+        <v>500</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <f>C47*E$1</f>
+        <v>16000000</v>
+      </c>
+      <c r="F47">
+        <f>D47*F$1</f>
+        <v>3000000</v>
+      </c>
+      <c r="G47" s="3">
+        <f>E47+F47</f>
+        <v>19000000</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1765960.41</v>
+      </c>
+      <c r="I47" s="2">
+        <v>221382</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="1"/>
+        <v>19873424.099999998</v>
+      </c>
+      <c r="K47" s="4">
+        <f>G47</f>
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48">
+        <v>500</v>
+      </c>
+      <c r="D48">
+        <v>300</v>
+      </c>
+      <c r="E48">
+        <f>C48*E$1</f>
+        <v>16000000</v>
+      </c>
+      <c r="F48">
+        <f>D48*F$1</f>
+        <v>4500000</v>
+      </c>
+      <c r="G48" s="3">
+        <f>E48+F48</f>
+        <v>20500000</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1765960.41</v>
+      </c>
+      <c r="I48" s="2">
+        <v>321564</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="1"/>
+        <v>20875244.099999998</v>
+      </c>
+      <c r="K48" s="4">
+        <f>G48</f>
+        <v>20500000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17">
+      <c r="C49">
+        <v>500</v>
+      </c>
+      <c r="D49">
+        <v>400</v>
+      </c>
+      <c r="E49">
+        <f>C49*E$1</f>
+        <v>16000000</v>
+      </c>
+      <c r="F49">
+        <f>D49*F$1</f>
+        <v>6000000</v>
+      </c>
+      <c r="G49" s="3">
+        <f>E49+F49</f>
+        <v>22000000</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1765960.41</v>
+      </c>
+      <c r="I49" s="2">
+        <v>417613</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="1"/>
+        <v>21835734.100000001</v>
+      </c>
+      <c r="K49" s="4">
+        <f>G49</f>
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17">
+      <c r="C50">
+        <v>500</v>
+      </c>
+      <c r="D50">
+        <v>500</v>
+      </c>
+      <c r="E50">
+        <f>C50*E$1</f>
+        <v>16000000</v>
+      </c>
+      <c r="F50">
+        <f>D50*F$1</f>
+        <v>7500000</v>
+      </c>
+      <c r="G50" s="3">
+        <f>E50+F50</f>
+        <v>23500000</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1765960.41</v>
+      </c>
+      <c r="I50" s="2">
+        <v>509297</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="1"/>
+        <v>22752574.100000001</v>
+      </c>
+      <c r="K50" s="4">
+        <f>G50</f>
+        <v>23500000</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17">
+      <c r="C51">
+        <v>500</v>
+      </c>
+      <c r="D51">
+        <v>900</v>
+      </c>
+      <c r="E51">
+        <f>C51*E$1</f>
+        <v>16000000</v>
+      </c>
+      <c r="F51">
+        <f>D51*F$1</f>
+        <v>13500000</v>
+      </c>
+      <c r="G51" s="3">
+        <f>E51+F51</f>
+        <v>29500000</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1765960.41</v>
+      </c>
+      <c r="I51" s="2">
+        <v>840030</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>26059904.100000001</v>
+      </c>
+      <c r="K51" s="4">
+        <f>G51</f>
+        <v>29500000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17">
+      <c r="C52">
         <v>600</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E17" si="4">1-D8</f>
-        <v>0.91</v>
-      </c>
-      <c r="F8">
-        <f>C8*E8</f>
-        <v>546</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" ref="H8:H17" si="5">1-G8</f>
-        <v>0.99</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>594</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>700</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.87</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>609</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="5"/>
-        <v>0.97</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>679</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>C52*E$1</f>
+        <v>19200000</v>
+      </c>
+      <c r="F52">
+        <f>D52*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <f>E52+F52</f>
+        <v>19200000</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1919841.05</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>19198410.5</v>
+      </c>
+      <c r="K52" s="4">
+        <f>G52</f>
+        <v>19200000</v>
+      </c>
+      <c r="L52" s="2">
+        <f>J52</f>
+        <v>19198410.5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17">
+      <c r="C53">
         <v>800</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.83</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>664</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.95</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>760</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>900</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="4"/>
-        <v>0.79</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>711</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="5"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>837</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="5"/>
-        <v>0.91</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>910</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>1100</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.72</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>792</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>968</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>1200</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.67999999999999994</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>815.99999999999989</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="5"/>
-        <v>0.85</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>1300</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>845</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>1400</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.62</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>868</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="5"/>
-        <v>0.72</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>1500</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="4"/>
-        <v>0.59000000000000008</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>885.00000000000011</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="5"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>1004.9999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>C53*E$1</f>
+        <v>25600000</v>
+      </c>
+      <c r="F53">
+        <f>D53*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f>E53+F53</f>
+        <v>25600000</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2129812.87</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>21298128.700000003</v>
+      </c>
+      <c r="K53" s="4">
+        <f>G53</f>
+        <v>25600000</v>
+      </c>
+      <c r="L53" s="2">
+        <f>J53</f>
+        <v>21298128.700000003</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17">
+      <c r="Q54" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G55:L95">
+    <sortCondition ref="G55:G95"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PV_investment.xlsx
+++ b/PV_investment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egat\Documents\GitHub\PRJ_load_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE80DC6-22F9-49FC-9263-313470B0B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11200F58-6DE3-444A-94B8-8C906586B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{854BCA3E-613D-4329-A0D7-BF36F614DB11}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">case </t>
-  </si>
   <si>
     <t>PV</t>
   </si>
@@ -89,6 +86,9 @@
   <si>
     <t>*ignore installation area condition</t>
   </si>
+  <si>
+    <t>unit price</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,20 +139,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2852,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43F18F2-D837-4D62-96EC-49C5F989610D}">
-  <dimension ref="B1:S54"/>
+  <dimension ref="C1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2863,7 +2989,7 @@
     <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -2875,7 +3001,10 @@
     <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="3:19">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
       <c r="E1">
         <v>32000</v>
       </c>
@@ -2886,1928 +3015,1973 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
-      <c r="C2" t="s">
+    <row r="2" spans="3:19">
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>11</v>
       </c>
-      <c r="R3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>C4*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <f>E4+F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+    </row>
+    <row r="4" spans="3:19">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E35" si="0">C4*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G35" si="1">E4+F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <f>(H4+I4)*$J$1</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
-        <f>G4</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="K4" s="30">
+        <f t="shared" ref="K4:K35" si="2">G4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="3:19">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>100</v>
       </c>
-      <c r="E5">
-        <f>C5*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>D5*F$1</f>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F36" si="3">D5*F$1</f>
         <v>1500000</v>
       </c>
-      <c r="G5" s="3">
-        <f>E5+F5</f>
+      <c r="G5" s="27">
+        <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <v>46033</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="9">
         <f>(H5+I5)*$J$1</f>
         <v>460330</v>
       </c>
-      <c r="K5" s="4">
-        <f>G5</f>
+      <c r="K5" s="30">
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="O5" s="3">
+      <c r="L5" s="10"/>
+      <c r="O5" s="1">
         <f>G12</f>
         <v>4800000</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f>J12</f>
         <v>7733774.7999999998</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
         <f>P5</f>
         <v>7733774.7999999998</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="1">
         <f>P5</f>
         <v>7733774.7999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+    <row r="6" spans="3:19">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <v>150</v>
       </c>
-      <c r="E6">
-        <f>C6*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>D6*F$1</f>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="3"/>
         <v>2250000</v>
       </c>
-      <c r="G6" s="3">
-        <f>E6+F6</f>
+      <c r="G6" s="27">
+        <f t="shared" si="1"/>
         <v>2250000</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>66172</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="9">
         <f>(H6+I6)*$J$1</f>
         <v>661720</v>
       </c>
-      <c r="K6" s="4">
-        <f>G6</f>
+      <c r="K6" s="30">
+        <f t="shared" si="2"/>
         <v>2250000</v>
       </c>
-      <c r="O6" s="3">
+      <c r="L6" s="8"/>
+      <c r="O6" s="1">
         <f>G20</f>
         <v>6400000</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f>J20</f>
         <v>9754400.1999999993</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
         <f>_xlfn.FORECAST.LINEAR(O6,$P$4:P$5,O$4:O$5)</f>
         <v>10311699.733333332</v>
       </c>
-      <c r="R6" s="3">
-        <f t="shared" ref="R6:R8" si="0">P6</f>
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:R8" si="4">P6</f>
         <v>9754400.1999999993</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+    <row r="7" spans="3:19">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <v>200</v>
       </c>
-      <c r="E7">
-        <f>C7*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>D7*F$1</f>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="3"/>
         <v>3000000</v>
       </c>
-      <c r="G7" s="3">
-        <f>E7+F7</f>
+      <c r="G7" s="27">
+        <f t="shared" si="1"/>
         <v>3000000</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>84347</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J53" si="1">(H7+I7)*$J$1</f>
+      <c r="J7" s="9">
+        <f t="shared" ref="J7:J53" si="5">(H7+I7)*$J$1</f>
         <v>843470</v>
       </c>
-      <c r="K7" s="4">
-        <f>G7</f>
+      <c r="K7" s="30">
+        <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="O7" s="3">
+      <c r="L7" s="8"/>
+      <c r="O7" s="1">
         <f>G28</f>
         <v>9600000</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="1">
         <f>J28</f>
         <v>13109435.9</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
         <f>_xlfn.FORECAST.LINEAR(O7,$P$4:P$5,O$4:O$5)</f>
         <v>15467549.6</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="1">
+        <f t="shared" si="4"/>
+        <v>13109435.9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>300</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>13109435.9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8">
-        <f>C8*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>D8*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="3"/>
         <v>4500000</v>
       </c>
-      <c r="G8" s="3">
-        <f>E8+F8</f>
+      <c r="G8" s="27">
+        <f t="shared" si="1"/>
         <v>4500000</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
         <v>114994</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="1"/>
+      <c r="J8" s="9">
+        <f t="shared" si="5"/>
         <v>1149940</v>
       </c>
-      <c r="K8" s="4">
-        <f>G8</f>
+      <c r="K8" s="30">
+        <f t="shared" si="2"/>
         <v>4500000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="L8" s="8"/>
+      <c r="O8" s="1">
         <f>G36</f>
         <v>12800000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="1">
         <f>J36</f>
         <v>15626109.5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <f>_xlfn.FORECAST.LINEAR(O8,$P$4:P$5,O$4:O$5)</f>
         <v>20623399.466666665</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>15626109.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>400</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>15626109.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>400</v>
-      </c>
-      <c r="E9">
-        <f>C9*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>D9*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
-      <c r="G9" s="3">
-        <f>E9+F9</f>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>136989</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="1"/>
+      <c r="J9" s="9">
+        <f t="shared" si="5"/>
         <v>1369890</v>
       </c>
-      <c r="K9" s="4">
-        <f>G9</f>
+      <c r="K9" s="30">
+        <f t="shared" si="2"/>
         <v>6000000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="L9" s="8"/>
+      <c r="O9" s="1">
         <f>G44</f>
         <v>16000000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="1">
         <f>J44</f>
         <v>17659604.099999998</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <f>_xlfn.FORECAST.LINEAR(O9,$P$4:P$5,O$4:O$5)</f>
         <v>25779249.333333332</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <v>18100000</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+    <row r="10" spans="3:19">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
         <v>500</v>
       </c>
-      <c r="E10">
-        <f>C10*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>D10*F$1</f>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
         <v>7500000</v>
       </c>
-      <c r="G10" s="3">
-        <f>E10+F10</f>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
         <v>7500000</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <v>150282</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="1"/>
+      <c r="J10" s="9">
+        <f t="shared" si="5"/>
         <v>1502820</v>
       </c>
-      <c r="K10" s="4">
-        <f>G10</f>
+      <c r="K10" s="30">
+        <f t="shared" si="2"/>
         <v>7500000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="L10" s="8"/>
+      <c r="O10" s="1">
         <f>G52</f>
         <v>19200000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="1">
         <f>J52</f>
         <v>19198410.5</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="2">
         <f>_xlfn.FORECAST.LINEAR(O10,$P$4:P$5,O$4:O$5)</f>
         <v>30935099.199999999</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="4">
         <v>20100000</v>
       </c>
-      <c r="S10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="S10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
         <v>900</v>
       </c>
-      <c r="E11">
-        <f>C11*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>D11*F$1</f>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="3"/>
         <v>13500000</v>
       </c>
-      <c r="G11" s="3">
-        <f>E11+F11</f>
+      <c r="G11" s="27">
+        <f t="shared" si="1"/>
         <v>13500000</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <v>163963</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="1"/>
+      <c r="J11" s="9">
+        <f t="shared" si="5"/>
         <v>1639630</v>
       </c>
-      <c r="K11" s="4">
-        <f>G11</f>
+      <c r="K11" s="30">
+        <f t="shared" si="2"/>
         <v>13500000</v>
       </c>
-      <c r="O11" s="3">
+      <c r="L11" s="8"/>
+      <c r="O11" s="1">
         <f>G53</f>
         <v>25600000</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="1">
         <f>J53</f>
         <v>21298128.700000003</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="2">
         <f>_xlfn.FORECAST.LINEAR(O11,$P$4:P$5,O$4:O$5)</f>
         <v>41246798.93333333</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="4">
         <v>24000000</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="C12">
+      <c r="S11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="C12" s="6">
         <v>150</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>C12*E$1</f>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
         <v>4800000</v>
       </c>
-      <c r="F12">
-        <f>D12*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <f>E12+F12</f>
+      <c r="F12" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="1"/>
         <v>4800000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="11">
         <v>773377.48</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="1"/>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="5"/>
         <v>7733774.7999999998</v>
       </c>
-      <c r="K12" s="4">
-        <f>G12</f>
+      <c r="K12" s="30">
+        <f t="shared" si="2"/>
         <v>4800000</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="12">
         <f>J12</f>
         <v>7733774.7999999998</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="C13">
+      <c r="S12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="C13" s="6">
         <v>150</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>100</v>
       </c>
-      <c r="E13">
-        <f>C13*E$1</f>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
         <v>4800000</v>
       </c>
-      <c r="F13">
-        <f>D13*F$1</f>
+      <c r="F13" s="7">
+        <f t="shared" si="3"/>
         <v>1500000</v>
       </c>
-      <c r="G13" s="3">
-        <f>E13+F13</f>
+      <c r="G13" s="27">
+        <f t="shared" si="1"/>
         <v>6300000</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="11">
         <v>773377.48</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="9">
         <v>105743</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="9">
+        <f t="shared" si="5"/>
+        <v>8791204.8000000007</v>
+      </c>
+      <c r="K13" s="30">
+        <f t="shared" si="2"/>
+        <v>6300000</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="6">
+        <v>150</v>
+      </c>
+      <c r="D14" s="7">
+        <v>150</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>4800000</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>2250000</v>
+      </c>
+      <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>8791204.8000000007</v>
-      </c>
-      <c r="K13" s="4">
-        <f>G13</f>
-        <v>6300000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="C14">
+        <v>7050000</v>
+      </c>
+      <c r="H14" s="11">
+        <v>773377.48</v>
+      </c>
+      <c r="I14" s="9">
+        <v>145788</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="5"/>
+        <v>9191654.8000000007</v>
+      </c>
+      <c r="K14" s="30">
+        <f t="shared" si="2"/>
+        <v>7050000</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="6">
         <v>150</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="7">
+        <v>200</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>4800000</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="3"/>
+        <v>3000000</v>
+      </c>
+      <c r="G15" s="27">
+        <f t="shared" si="1"/>
+        <v>7800000</v>
+      </c>
+      <c r="H15" s="11">
+        <v>773377.48</v>
+      </c>
+      <c r="I15" s="9">
+        <v>178712</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="5"/>
+        <v>9520894.8000000007</v>
+      </c>
+      <c r="K15" s="30">
+        <f t="shared" si="2"/>
+        <v>7800000</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="6">
         <v>150</v>
       </c>
-      <c r="E14">
-        <f>C14*E$1</f>
+      <c r="D16" s="7">
+        <v>300</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
         <v>4800000</v>
       </c>
-      <c r="F14">
-        <f>D14*F$1</f>
-        <v>2250000</v>
-      </c>
-      <c r="G14" s="3">
-        <f>E14+F14</f>
-        <v>7050000</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="F16" s="7">
+        <f t="shared" si="3"/>
+        <v>4500000</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" si="1"/>
+        <v>9300000</v>
+      </c>
+      <c r="H16" s="11">
         <v>773377.48</v>
       </c>
-      <c r="I14" s="2">
-        <v>145788</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I16" s="9">
+        <v>226595</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="5"/>
+        <v>9999724.8000000007</v>
+      </c>
+      <c r="K16" s="30">
+        <f t="shared" si="2"/>
+        <v>9300000</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="6">
+        <v>150</v>
+      </c>
+      <c r="D17" s="7">
+        <v>400</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>4800000</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="3"/>
+        <v>6000000</v>
+      </c>
+      <c r="G17" s="27">
         <f t="shared" si="1"/>
-        <v>9191654.8000000007</v>
-      </c>
-      <c r="K14" s="4">
-        <f>G14</f>
-        <v>7050000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="C15">
+        <v>10800000</v>
+      </c>
+      <c r="H17" s="11">
+        <v>773377.48</v>
+      </c>
+      <c r="I17" s="9">
+        <v>257100</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="5"/>
+        <v>10304774.800000001</v>
+      </c>
+      <c r="K17" s="30">
+        <f t="shared" si="2"/>
+        <v>10800000</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="6">
         <v>150</v>
       </c>
-      <c r="D15">
+      <c r="D18" s="7">
+        <v>500</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>4800000</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="3"/>
+        <v>7500000</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="1"/>
+        <v>12300000</v>
+      </c>
+      <c r="H18" s="11">
+        <v>773377.48</v>
+      </c>
+      <c r="I18" s="9">
+        <v>274700</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="5"/>
+        <v>10480774.800000001</v>
+      </c>
+      <c r="K18" s="30">
+        <f t="shared" si="2"/>
+        <v>12300000</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="6">
+        <v>150</v>
+      </c>
+      <c r="D19" s="7">
+        <v>900</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>4800000</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="3"/>
+        <v>13500000</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="1"/>
+        <v>18300000</v>
+      </c>
+      <c r="H19" s="11">
+        <v>773377.48</v>
+      </c>
+      <c r="I19" s="9">
+        <v>292328</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="5"/>
+        <v>10657054.800000001</v>
+      </c>
+      <c r="K19" s="30">
+        <f t="shared" si="2"/>
+        <v>18300000</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="6">
         <v>200</v>
       </c>
-      <c r="E15">
-        <f>C15*E$1</f>
-        <v>4800000</v>
-      </c>
-      <c r="F15">
-        <f>D15*F$1</f>
-        <v>3000000</v>
-      </c>
-      <c r="G15" s="3">
-        <f>E15+F15</f>
-        <v>7800000</v>
-      </c>
-      <c r="H15" s="1">
-        <v>773377.48</v>
-      </c>
-      <c r="I15" s="2">
-        <v>178712</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="27">
         <f t="shared" si="1"/>
-        <v>9520894.8000000007</v>
-      </c>
-      <c r="K15" s="4">
-        <f>G15</f>
-        <v>7800000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="C16">
-        <v>150</v>
-      </c>
-      <c r="D16">
-        <v>300</v>
-      </c>
-      <c r="E16">
-        <f>C16*E$1</f>
-        <v>4800000</v>
-      </c>
-      <c r="F16">
-        <f>D16*F$1</f>
-        <v>4500000</v>
-      </c>
-      <c r="G16" s="3">
-        <f>E16+F16</f>
-        <v>9300000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>773377.48</v>
-      </c>
-      <c r="I16" s="2">
-        <v>226595</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="1"/>
-        <v>9999724.8000000007</v>
-      </c>
-      <c r="K16" s="4">
-        <f>G16</f>
-        <v>9300000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17">
-        <v>150</v>
-      </c>
-      <c r="D17">
-        <v>400</v>
-      </c>
-      <c r="E17">
-        <f>C17*E$1</f>
-        <v>4800000</v>
-      </c>
-      <c r="F17">
-        <f>D17*F$1</f>
-        <v>6000000</v>
-      </c>
-      <c r="G17" s="3">
-        <f>E17+F17</f>
-        <v>10800000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>773377.48</v>
-      </c>
-      <c r="I17" s="2">
-        <v>257100</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="1"/>
-        <v>10304774.800000001</v>
-      </c>
-      <c r="K17" s="4">
-        <f>G17</f>
-        <v>10800000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18">
-        <v>150</v>
-      </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="E18">
-        <f>C18*E$1</f>
-        <v>4800000</v>
-      </c>
-      <c r="F18">
-        <f>D18*F$1</f>
-        <v>7500000</v>
-      </c>
-      <c r="G18" s="3">
-        <f>E18+F18</f>
-        <v>12300000</v>
-      </c>
-      <c r="H18" s="1">
-        <v>773377.48</v>
-      </c>
-      <c r="I18" s="2">
-        <v>274700</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="1"/>
-        <v>10480774.800000001</v>
-      </c>
-      <c r="K18" s="4">
-        <f>G18</f>
-        <v>12300000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="D19">
-        <v>900</v>
-      </c>
-      <c r="E19">
-        <f>C19*E$1</f>
-        <v>4800000</v>
-      </c>
-      <c r="F19">
-        <f>D19*F$1</f>
-        <v>13500000</v>
-      </c>
-      <c r="G19" s="3">
-        <f>E19+F19</f>
-        <v>18300000</v>
-      </c>
-      <c r="H19" s="1">
-        <v>773377.48</v>
-      </c>
-      <c r="I19" s="2">
-        <v>292328</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="1"/>
-        <v>10657054.800000001</v>
-      </c>
-      <c r="K19" s="4">
-        <f>G19</f>
-        <v>18300000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20">
-        <v>200</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f>C20*E$1</f>
         <v>6400000</v>
       </c>
-      <c r="F20">
-        <f>D20*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <f>E20+F20</f>
+      <c r="H20" s="11">
+        <v>975440.02</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="5"/>
+        <v>9754400.1999999993</v>
+      </c>
+      <c r="K20" s="30">
+        <f t="shared" si="2"/>
         <v>6400000</v>
       </c>
-      <c r="H20" s="1">
-        <v>975440.02</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="1"/>
-        <v>9754400.1999999993</v>
-      </c>
-      <c r="K20" s="4">
-        <f>G20</f>
-        <v>6400000</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="L20" s="10">
         <f>J20</f>
         <v>9754400.1999999993</v>
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21">
+      <c r="C21" s="6">
         <v>200</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>100</v>
       </c>
-      <c r="E21">
-        <f>C21*E$1</f>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
         <v>6400000</v>
       </c>
-      <c r="F21">
-        <f>D21*F$1</f>
+      <c r="F21" s="7">
+        <f t="shared" si="3"/>
         <v>1500000</v>
       </c>
-      <c r="G21" s="3">
-        <f>E21+F21</f>
+      <c r="G21" s="27">
+        <f t="shared" si="1"/>
         <v>7900000</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="11">
         <v>975440.02</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="9">
         <v>114181</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="9">
+        <f t="shared" si="5"/>
+        <v>10896210.199999999</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="2"/>
+        <v>7900000</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="6">
+        <v>200</v>
+      </c>
+      <c r="D22" s="7">
+        <v>150</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="3"/>
+        <v>2250000</v>
+      </c>
+      <c r="G22" s="27">
         <f t="shared" si="1"/>
-        <v>10896210.199999999</v>
-      </c>
-      <c r="K21" s="4">
-        <f>G21</f>
-        <v>7900000</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22">
+        <v>8650000</v>
+      </c>
+      <c r="H22" s="11">
+        <v>975440.02</v>
+      </c>
+      <c r="I22" s="9">
+        <v>160471</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="5"/>
+        <v>11359110.199999999</v>
+      </c>
+      <c r="K22" s="30">
+        <f t="shared" si="2"/>
+        <v>8650000</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="6">
         <v>200</v>
       </c>
-      <c r="D22">
-        <v>150</v>
-      </c>
-      <c r="E22">
-        <f>C22*E$1</f>
+      <c r="D23" s="7">
+        <v>200</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
         <v>6400000</v>
       </c>
-      <c r="F22">
-        <f>D22*F$1</f>
-        <v>2250000</v>
-      </c>
-      <c r="G22" s="3">
-        <f>E22+F22</f>
-        <v>8650000</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="F23" s="7">
+        <f t="shared" si="3"/>
+        <v>3000000</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="1"/>
+        <v>9400000</v>
+      </c>
+      <c r="H23" s="11">
         <v>975440.02</v>
       </c>
-      <c r="I22" s="2">
-        <v>160471</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I23" s="9">
+        <v>200134</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="5"/>
+        <v>11755740.199999999</v>
+      </c>
+      <c r="K23" s="30">
+        <f t="shared" si="2"/>
+        <v>9400000</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="6">
+        <v>200</v>
+      </c>
+      <c r="D24" s="7">
+        <v>300</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="3"/>
+        <v>4500000</v>
+      </c>
+      <c r="G24" s="27">
         <f t="shared" si="1"/>
-        <v>11359110.199999999</v>
-      </c>
-      <c r="K22" s="4">
-        <f>G22</f>
-        <v>8650000</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23">
+        <v>10900000</v>
+      </c>
+      <c r="H24" s="11">
+        <v>975440.02</v>
+      </c>
+      <c r="I24" s="9">
+        <v>262273</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="5"/>
+        <v>12377130.199999999</v>
+      </c>
+      <c r="K24" s="30">
+        <f t="shared" si="2"/>
+        <v>10900000</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="6">
         <v>200</v>
       </c>
-      <c r="D23">
+      <c r="D25" s="7">
+        <v>400</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="3"/>
+        <v>6000000</v>
+      </c>
+      <c r="G25" s="27">
+        <f t="shared" si="1"/>
+        <v>12400000</v>
+      </c>
+      <c r="H25" s="11">
+        <v>975440.02</v>
+      </c>
+      <c r="I25" s="9">
+        <v>307013</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="5"/>
+        <v>12824530.199999999</v>
+      </c>
+      <c r="K25" s="30">
+        <f t="shared" si="2"/>
+        <v>12400000</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="6">
         <v>200</v>
       </c>
-      <c r="E23">
-        <f>C23*E$1</f>
+      <c r="D26" s="7">
+        <v>500</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
         <v>6400000</v>
       </c>
-      <c r="F23">
-        <f>D23*F$1</f>
-        <v>3000000</v>
-      </c>
-      <c r="G23" s="3">
-        <f>E23+F23</f>
-        <v>9400000</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="F26" s="7">
+        <f t="shared" si="3"/>
+        <v>7500000</v>
+      </c>
+      <c r="G26" s="27">
+        <f t="shared" si="1"/>
+        <v>13900000</v>
+      </c>
+      <c r="H26" s="11">
         <v>975440.02</v>
       </c>
-      <c r="I23" s="2">
-        <v>200134</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I26" s="9">
+        <v>339098</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="5"/>
+        <v>13145380.199999999</v>
+      </c>
+      <c r="K26" s="30">
+        <f t="shared" si="2"/>
+        <v>13900000</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="6">
+        <v>200</v>
+      </c>
+      <c r="D27" s="7">
+        <v>900</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="3"/>
+        <v>13500000</v>
+      </c>
+      <c r="G27" s="27">
         <f t="shared" si="1"/>
-        <v>11755740.199999999</v>
-      </c>
-      <c r="K23" s="4">
-        <f>G23</f>
-        <v>9400000</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24">
-        <v>200</v>
-      </c>
-      <c r="D24">
+        <v>19900000</v>
+      </c>
+      <c r="H27" s="11">
+        <v>975440.02</v>
+      </c>
+      <c r="I27" s="9">
+        <v>385977</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="5"/>
+        <v>13614170.199999999</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" si="2"/>
+        <v>19900000</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="6">
         <v>300</v>
       </c>
-      <c r="E24">
-        <f>C24*E$1</f>
-        <v>6400000</v>
-      </c>
-      <c r="F24">
-        <f>D24*F$1</f>
-        <v>4500000</v>
-      </c>
-      <c r="G24" s="3">
-        <f>E24+F24</f>
-        <v>10900000</v>
-      </c>
-      <c r="H24" s="1">
-        <v>975440.02</v>
-      </c>
-      <c r="I24" s="2">
-        <v>262273</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="27">
         <f t="shared" si="1"/>
-        <v>12377130.199999999</v>
-      </c>
-      <c r="K24" s="4">
-        <f>G24</f>
-        <v>10900000</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25">
-        <v>200</v>
-      </c>
-      <c r="D25">
-        <v>400</v>
-      </c>
-      <c r="E25">
-        <f>C25*E$1</f>
-        <v>6400000</v>
-      </c>
-      <c r="F25">
-        <f>D25*F$1</f>
-        <v>6000000</v>
-      </c>
-      <c r="G25" s="3">
-        <f>E25+F25</f>
-        <v>12400000</v>
-      </c>
-      <c r="H25" s="1">
-        <v>975440.02</v>
-      </c>
-      <c r="I25" s="2">
-        <v>307013</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="1"/>
-        <v>12824530.199999999</v>
-      </c>
-      <c r="K25" s="4">
-        <f>G25</f>
-        <v>12400000</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26">
-        <v>200</v>
-      </c>
-      <c r="D26">
-        <v>500</v>
-      </c>
-      <c r="E26">
-        <f>C26*E$1</f>
-        <v>6400000</v>
-      </c>
-      <c r="F26">
-        <f>D26*F$1</f>
-        <v>7500000</v>
-      </c>
-      <c r="G26" s="3">
-        <f>E26+F26</f>
-        <v>13900000</v>
-      </c>
-      <c r="H26" s="1">
-        <v>975440.02</v>
-      </c>
-      <c r="I26" s="2">
-        <v>339098</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="1"/>
-        <v>13145380.199999999</v>
-      </c>
-      <c r="K26" s="4">
-        <f>G26</f>
-        <v>13900000</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12">
-      <c r="C27">
-        <v>200</v>
-      </c>
-      <c r="D27">
-        <v>900</v>
-      </c>
-      <c r="E27">
-        <f>C27*E$1</f>
-        <v>6400000</v>
-      </c>
-      <c r="F27">
-        <f>D27*F$1</f>
-        <v>13500000</v>
-      </c>
-      <c r="G27" s="3">
-        <f>E27+F27</f>
-        <v>19900000</v>
-      </c>
-      <c r="H27" s="1">
-        <v>975440.02</v>
-      </c>
-      <c r="I27" s="2">
-        <v>385977</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="1"/>
-        <v>13614170.199999999</v>
-      </c>
-      <c r="K27" s="4">
-        <f>G27</f>
-        <v>19900000</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28">
-        <v>300</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f>C28*E$1</f>
         <v>9600000</v>
       </c>
-      <c r="F28">
-        <f>D28*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <f>E28+F28</f>
+      <c r="H28" s="11">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="5"/>
+        <v>13109435.9</v>
+      </c>
+      <c r="K28" s="30">
+        <f t="shared" si="2"/>
         <v>9600000</v>
       </c>
-      <c r="H28" s="1">
-        <v>1310943.5900000001</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="1"/>
-        <v>13109435.9</v>
-      </c>
-      <c r="K28" s="4">
-        <f>G28</f>
-        <v>9600000</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="L28" s="10">
         <f>J28</f>
         <v>13109435.9</v>
       </c>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29">
+      <c r="C29" s="6">
         <v>300</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>100</v>
       </c>
-      <c r="E29">
-        <f>C29*E$1</f>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
-      <c r="F29">
-        <f>D29*F$1</f>
+      <c r="F29" s="7">
+        <f t="shared" si="3"/>
         <v>1500000</v>
       </c>
-      <c r="G29" s="3">
-        <f>E29+F29</f>
+      <c r="G29" s="27">
+        <f t="shared" si="1"/>
         <v>11100000</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="11">
         <v>1310943.5900000001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="9">
         <v>118408</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="9">
+        <f t="shared" si="5"/>
+        <v>14293515.9</v>
+      </c>
+      <c r="K29" s="30">
+        <f t="shared" si="2"/>
+        <v>11100000</v>
+      </c>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="6">
+        <v>300</v>
+      </c>
+      <c r="D30" s="7">
+        <v>150</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="3"/>
+        <v>2250000</v>
+      </c>
+      <c r="G30" s="27">
         <f t="shared" si="1"/>
-        <v>14293515.9</v>
-      </c>
-      <c r="K29" s="4">
-        <f>G29</f>
-        <v>11100000</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30">
+        <v>11850000</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I30" s="9">
+        <v>169366</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="5"/>
+        <v>14803095.9</v>
+      </c>
+      <c r="K30" s="30">
+        <f t="shared" si="2"/>
+        <v>11850000</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="6">
         <v>300</v>
       </c>
-      <c r="D30">
-        <v>150</v>
-      </c>
-      <c r="E30">
-        <f>C30*E$1</f>
+      <c r="D31" s="7">
+        <v>200</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
-      <c r="F30">
-        <f>D30*F$1</f>
-        <v>2250000</v>
-      </c>
-      <c r="G30" s="3">
-        <f>E30+F30</f>
-        <v>11850000</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="F31" s="7">
+        <f t="shared" si="3"/>
+        <v>3000000</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="1"/>
+        <v>12600000</v>
+      </c>
+      <c r="H31" s="11">
         <v>1310943.5900000001</v>
       </c>
-      <c r="I30" s="2">
-        <v>169366</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I31" s="9">
+        <v>216321</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="5"/>
+        <v>15272645.9</v>
+      </c>
+      <c r="K31" s="30">
+        <f t="shared" si="2"/>
+        <v>12600000</v>
+      </c>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="6">
+        <v>300</v>
+      </c>
+      <c r="D32" s="7">
+        <v>300</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="3"/>
+        <v>4500000</v>
+      </c>
+      <c r="G32" s="27">
         <f t="shared" si="1"/>
-        <v>14803095.9</v>
-      </c>
-      <c r="K30" s="4">
-        <f>G30</f>
-        <v>11850000</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="C31">
+        <v>14100000</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I32" s="9">
+        <v>300154</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="5"/>
+        <v>16110975.9</v>
+      </c>
+      <c r="K32" s="30">
+        <f t="shared" si="2"/>
+        <v>14100000</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="6">
         <v>300</v>
       </c>
-      <c r="D31">
-        <v>200</v>
-      </c>
-      <c r="E31">
-        <f>C31*E$1</f>
+      <c r="D33" s="7">
+        <v>400</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
-      <c r="F31">
-        <f>D31*F$1</f>
-        <v>3000000</v>
-      </c>
-      <c r="G31" s="3">
-        <f>E31+F31</f>
-        <v>12600000</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="F33" s="7">
+        <f t="shared" si="3"/>
+        <v>6000000</v>
+      </c>
+      <c r="G33" s="27">
+        <f t="shared" si="1"/>
+        <v>15600000</v>
+      </c>
+      <c r="H33" s="11">
         <v>1310943.5900000001</v>
       </c>
-      <c r="I31" s="2">
-        <v>216321</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I33" s="9">
+        <v>372949</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="5"/>
+        <v>16838925.900000002</v>
+      </c>
+      <c r="K33" s="30">
+        <f t="shared" si="2"/>
+        <v>15600000</v>
+      </c>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="6">
+        <v>300</v>
+      </c>
+      <c r="D34" s="7">
+        <v>500</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="3"/>
+        <v>7500000</v>
+      </c>
+      <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>15272645.9</v>
-      </c>
-      <c r="K31" s="4">
-        <f>G31</f>
-        <v>12600000</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="C32">
+        <v>17100000</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1310943.5900000001</v>
+      </c>
+      <c r="I34" s="9">
+        <v>436313</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="5"/>
+        <v>17472565.900000002</v>
+      </c>
+      <c r="K34" s="30">
+        <f t="shared" si="2"/>
+        <v>17100000</v>
+      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="6">
         <v>300</v>
       </c>
-      <c r="D32">
-        <v>300</v>
-      </c>
-      <c r="E32">
-        <f>C32*E$1</f>
+      <c r="D35" s="7">
+        <v>900</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
-      <c r="F32">
-        <f>D32*F$1</f>
-        <v>4500000</v>
-      </c>
-      <c r="G32" s="3">
-        <f>E32+F32</f>
-        <v>14100000</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="F35" s="7">
+        <f t="shared" si="3"/>
+        <v>13500000</v>
+      </c>
+      <c r="G35" s="27">
+        <f t="shared" si="1"/>
+        <v>23100000</v>
+      </c>
+      <c r="H35" s="11">
         <v>1310943.5900000001</v>
       </c>
-      <c r="I32" s="2">
-        <v>300154</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="1"/>
-        <v>16110975.9</v>
-      </c>
-      <c r="K32" s="4">
-        <f>G32</f>
-        <v>14100000</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12">
-      <c r="C33">
-        <v>300</v>
-      </c>
-      <c r="D33">
+      <c r="I35" s="9">
+        <v>591050</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="5"/>
+        <v>19019935.900000002</v>
+      </c>
+      <c r="K35" s="30">
+        <f t="shared" si="2"/>
+        <v>23100000</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="6">
         <v>400</v>
       </c>
-      <c r="E33">
-        <f>C33*E$1</f>
-        <v>9600000</v>
-      </c>
-      <c r="F33">
-        <f>D33*F$1</f>
-        <v>6000000</v>
-      </c>
-      <c r="G33" s="3">
-        <f>E33+F33</f>
-        <v>15600000</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1310943.5900000001</v>
-      </c>
-      <c r="I33" s="2">
-        <v>372949</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="1"/>
-        <v>16838925.900000002</v>
-      </c>
-      <c r="K33" s="4">
-        <f>G33</f>
-        <v>15600000</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12">
-      <c r="C34">
-        <v>300</v>
-      </c>
-      <c r="D34">
-        <v>500</v>
-      </c>
-      <c r="E34">
-        <f>C34*E$1</f>
-        <v>9600000</v>
-      </c>
-      <c r="F34">
-        <f>D34*F$1</f>
-        <v>7500000</v>
-      </c>
-      <c r="G34" s="3">
-        <f>E34+F34</f>
-        <v>17100000</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1310943.5900000001</v>
-      </c>
-      <c r="I34" s="2">
-        <v>436313</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="1"/>
-        <v>17472565.900000002</v>
-      </c>
-      <c r="K34" s="4">
-        <f>G34</f>
-        <v>17100000</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35">
-        <v>300</v>
-      </c>
-      <c r="D35">
-        <v>900</v>
-      </c>
-      <c r="E35">
-        <f>C35*E$1</f>
-        <v>9600000</v>
-      </c>
-      <c r="F35">
-        <f>D35*F$1</f>
-        <v>13500000</v>
-      </c>
-      <c r="G35" s="3">
-        <f>E35+F35</f>
-        <v>23100000</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1310943.5900000001</v>
-      </c>
-      <c r="I35" s="2">
-        <v>591050</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="1"/>
-        <v>19019935.900000002</v>
-      </c>
-      <c r="K35" s="4">
-        <f>G35</f>
-        <v>23100000</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36">
-        <v>400</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f>C36*E$1</f>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36:E53" si="6">C36*E$1</f>
         <v>12800000</v>
       </c>
-      <c r="F36">
-        <f>D36*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <f>E36+F36</f>
+      <c r="F36" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" ref="G36:G53" si="7">E36+F36</f>
         <v>12800000</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="11">
         <v>1562610.95</v>
       </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="1"/>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="5"/>
         <v>15626109.5</v>
       </c>
-      <c r="K36" s="4">
-        <f>G36</f>
+      <c r="K36" s="30">
+        <f t="shared" ref="K36:K53" si="8">G36</f>
         <v>12800000</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="10">
         <f>J36</f>
         <v>15626109.5</v>
       </c>
     </row>
     <row r="37" spans="3:12">
-      <c r="C37">
+      <c r="C37" s="6">
         <v>400</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <v>100</v>
       </c>
-      <c r="E37">
-        <f>C37*E$1</f>
+      <c r="E37" s="6">
+        <f t="shared" si="6"/>
         <v>12800000</v>
       </c>
-      <c r="F37">
-        <f>D37*F$1</f>
+      <c r="F37" s="7">
+        <f t="shared" ref="F37:F53" si="9">D37*F$1</f>
         <v>1500000</v>
       </c>
-      <c r="G37" s="3">
-        <f>E37+F37</f>
+      <c r="G37" s="27">
+        <f t="shared" si="7"/>
         <v>14300000</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="11">
         <v>1562610.95</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="9">
         <v>118027</v>
       </c>
-      <c r="J37" s="2">
-        <f t="shared" si="1"/>
+      <c r="J37" s="9">
+        <f t="shared" si="5"/>
         <v>16806379.5</v>
       </c>
-      <c r="K37" s="4">
-        <f>G37</f>
+      <c r="K37" s="30">
+        <f t="shared" si="8"/>
         <v>14300000</v>
       </c>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" spans="3:12">
-      <c r="C38">
+      <c r="C38" s="6">
         <v>400</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <v>150</v>
       </c>
-      <c r="E38">
-        <f>C38*E$1</f>
+      <c r="E38" s="6">
+        <f t="shared" si="6"/>
         <v>12800000</v>
       </c>
-      <c r="F38">
-        <f>D38*F$1</f>
+      <c r="F38" s="7">
+        <f t="shared" si="9"/>
         <v>2250000</v>
       </c>
-      <c r="G38" s="3">
-        <f>E38+F38</f>
+      <c r="G38" s="27">
+        <f t="shared" si="7"/>
         <v>15050000</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="11">
         <v>1562610.95</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="9">
         <v>170990</v>
       </c>
-      <c r="J38" s="2">
-        <f t="shared" si="1"/>
+      <c r="J38" s="9">
+        <f t="shared" si="5"/>
         <v>17336009.5</v>
       </c>
-      <c r="K38" s="4">
-        <f>G38</f>
+      <c r="K38" s="30">
+        <f t="shared" si="8"/>
         <v>15050000</v>
       </c>
+      <c r="L38" s="8"/>
     </row>
     <row r="39" spans="3:12">
-      <c r="C39">
+      <c r="C39" s="6">
         <v>400</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <v>200</v>
       </c>
-      <c r="E39">
-        <f>C39*E$1</f>
+      <c r="E39" s="6">
+        <f t="shared" si="6"/>
         <v>12800000</v>
       </c>
-      <c r="F39">
-        <f>D39*F$1</f>
+      <c r="F39" s="7">
+        <f t="shared" si="9"/>
         <v>3000000</v>
       </c>
-      <c r="G39" s="3">
-        <f>E39+F39</f>
+      <c r="G39" s="27">
+        <f t="shared" si="7"/>
         <v>15800000</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="11">
         <v>1562610.95</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="9">
         <v>221163</v>
       </c>
-      <c r="J39" s="2">
-        <f t="shared" si="1"/>
+      <c r="J39" s="9">
+        <f t="shared" si="5"/>
         <v>17837739.5</v>
       </c>
-      <c r="K39" s="4">
-        <f>G39</f>
+      <c r="K39" s="30">
+        <f t="shared" si="8"/>
         <v>15800000</v>
       </c>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" spans="3:12">
-      <c r="C40">
+      <c r="C40" s="6">
         <v>400</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="7">
         <v>300</v>
       </c>
-      <c r="E40">
-        <f>C40*E$1</f>
+      <c r="E40" s="6">
+        <f t="shared" si="6"/>
         <v>12800000</v>
       </c>
-      <c r="F40">
-        <f>D40*F$1</f>
+      <c r="F40" s="7">
+        <f t="shared" si="9"/>
         <v>4500000</v>
       </c>
-      <c r="G40" s="3">
-        <f>E40+F40</f>
+      <c r="G40" s="27">
+        <f t="shared" si="7"/>
         <v>17300000</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="11">
         <v>1562610.95</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="9">
         <v>315321</v>
       </c>
-      <c r="J40" s="2">
-        <f t="shared" si="1"/>
+      <c r="J40" s="9">
+        <f t="shared" si="5"/>
         <v>18779319.5</v>
       </c>
-      <c r="K40" s="4">
-        <f>G40</f>
+      <c r="K40" s="30">
+        <f t="shared" si="8"/>
         <v>17300000</v>
       </c>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="3:12">
-      <c r="C41">
+      <c r="C41" s="6">
         <v>400</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="7">
         <v>400</v>
       </c>
-      <c r="E41">
-        <f>C41*E$1</f>
+      <c r="E41" s="6">
+        <f t="shared" si="6"/>
         <v>12800000</v>
       </c>
-      <c r="F41">
-        <f>D41*F$1</f>
+      <c r="F41" s="7">
+        <f t="shared" si="9"/>
         <v>6000000</v>
       </c>
-      <c r="G41" s="3">
-        <f>E41+F41</f>
+      <c r="G41" s="27">
+        <f t="shared" si="7"/>
         <v>18800000</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="11">
         <v>1562610.95</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="9">
         <v>403302</v>
       </c>
-      <c r="J41" s="2">
-        <f t="shared" si="1"/>
+      <c r="J41" s="9">
+        <f t="shared" si="5"/>
         <v>19659129.5</v>
       </c>
-      <c r="K41" s="4">
-        <f>G41</f>
+      <c r="K41" s="30">
+        <f t="shared" si="8"/>
         <v>18800000</v>
       </c>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="3:12">
-      <c r="C42">
+      <c r="C42" s="6">
         <v>400</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="7">
         <v>500</v>
       </c>
-      <c r="E42">
-        <f>C42*E$1</f>
+      <c r="E42" s="6">
+        <f t="shared" si="6"/>
         <v>12800000</v>
       </c>
-      <c r="F42">
-        <f>D42*F$1</f>
+      <c r="F42" s="7">
+        <f t="shared" si="9"/>
         <v>7500000</v>
       </c>
-      <c r="G42" s="3">
-        <f>E42+F42</f>
+      <c r="G42" s="27">
+        <f t="shared" si="7"/>
         <v>20300000</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="11">
         <v>1562610.95</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="9">
         <v>484642</v>
       </c>
-      <c r="J42" s="2">
-        <f t="shared" si="1"/>
+      <c r="J42" s="9">
+        <f t="shared" si="5"/>
         <v>20472529.5</v>
       </c>
-      <c r="K42" s="4">
-        <f>G42</f>
+      <c r="K42" s="30">
+        <f t="shared" si="8"/>
         <v>20300000</v>
       </c>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="3:12">
-      <c r="C43">
+      <c r="C43" s="6">
         <v>400</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="7">
         <v>900</v>
       </c>
-      <c r="E43">
-        <f>C43*E$1</f>
+      <c r="E43" s="6">
+        <f t="shared" si="6"/>
         <v>12800000</v>
       </c>
-      <c r="F43">
-        <f>D43*F$1</f>
+      <c r="F43" s="7">
+        <f t="shared" si="9"/>
         <v>13500000</v>
       </c>
-      <c r="G43" s="3">
-        <f>E43+F43</f>
+      <c r="G43" s="27">
+        <f t="shared" si="7"/>
         <v>26300000</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="11">
         <v>1562610.95</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="9">
         <v>749785</v>
       </c>
-      <c r="J43" s="2">
-        <f t="shared" si="1"/>
+      <c r="J43" s="9">
+        <f t="shared" si="5"/>
         <v>23123959.5</v>
       </c>
-      <c r="K43" s="4">
-        <f>G43</f>
+      <c r="K43" s="30">
+        <f t="shared" si="8"/>
         <v>26300000</v>
       </c>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="3:12">
-      <c r="C44">
+      <c r="C44" s="6">
         <v>500</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <f>C44*E$1</f>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
-      <c r="F44">
-        <f>D44*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <f>E44+F44</f>
+      <c r="F44" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="27">
+        <f t="shared" si="7"/>
         <v>16000000</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="11">
         <v>1765960.41</v>
       </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="1"/>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="5"/>
         <v>17659604.099999998</v>
       </c>
-      <c r="K44" s="4">
-        <f>G44</f>
+      <c r="K44" s="30">
+        <f t="shared" si="8"/>
         <v>16000000</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="10">
         <f>J44</f>
         <v>17659604.099999998</v>
       </c>
     </row>
     <row r="45" spans="3:12">
-      <c r="C45">
+      <c r="C45" s="6">
         <v>500</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="7">
         <v>100</v>
       </c>
-      <c r="E45">
-        <f>C45*E$1</f>
+      <c r="E45" s="6">
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
-      <c r="F45">
-        <f>D45*F$1</f>
+      <c r="F45" s="7">
+        <f t="shared" si="9"/>
         <v>1500000</v>
       </c>
-      <c r="G45" s="3">
-        <f>E45+F45</f>
+      <c r="G45" s="27">
+        <f t="shared" si="7"/>
         <v>17500000</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="11">
         <v>1765960.41</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="9">
         <v>115472</v>
       </c>
-      <c r="J45" s="2">
-        <f t="shared" si="1"/>
+      <c r="J45" s="9">
+        <f t="shared" si="5"/>
         <v>18814324.099999998</v>
       </c>
-      <c r="K45" s="4">
-        <f>G45</f>
+      <c r="K45" s="30">
+        <f t="shared" si="8"/>
         <v>17500000</v>
       </c>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" spans="3:12">
-      <c r="C46">
+      <c r="C46" s="6">
         <v>500</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="7">
         <v>150</v>
       </c>
-      <c r="E46">
-        <f>C46*E$1</f>
+      <c r="E46" s="6">
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
-      <c r="F46">
-        <f>D46*F$1</f>
+      <c r="F46" s="7">
+        <f t="shared" si="9"/>
         <v>2250000</v>
       </c>
-      <c r="G46" s="3">
-        <f>E46+F46</f>
+      <c r="G46" s="27">
+        <f t="shared" si="7"/>
         <v>18250000</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="11">
         <v>1765960.41</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="9">
         <v>169309</v>
       </c>
-      <c r="J46" s="2">
-        <f t="shared" si="1"/>
+      <c r="J46" s="9">
+        <f t="shared" si="5"/>
         <v>19352694.099999998</v>
       </c>
-      <c r="K46" s="4">
-        <f>G46</f>
+      <c r="K46" s="30">
+        <f t="shared" si="8"/>
         <v>18250000</v>
       </c>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="3:12">
-      <c r="C47">
+      <c r="C47" s="6">
         <v>500</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="7">
         <v>200</v>
       </c>
-      <c r="E47">
-        <f>C47*E$1</f>
+      <c r="E47" s="6">
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
-      <c r="F47">
-        <f>D47*F$1</f>
+      <c r="F47" s="7">
+        <f t="shared" si="9"/>
         <v>3000000</v>
       </c>
-      <c r="G47" s="3">
-        <f>E47+F47</f>
+      <c r="G47" s="27">
+        <f t="shared" si="7"/>
         <v>19000000</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="11">
         <v>1765960.41</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="9">
         <v>221382</v>
       </c>
-      <c r="J47" s="2">
-        <f t="shared" si="1"/>
+      <c r="J47" s="9">
+        <f t="shared" si="5"/>
         <v>19873424.099999998</v>
       </c>
-      <c r="K47" s="4">
-        <f>G47</f>
+      <c r="K47" s="30">
+        <f t="shared" si="8"/>
         <v>19000000</v>
       </c>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="3:12">
-      <c r="C48">
+      <c r="C48" s="6">
         <v>500</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="7">
         <v>300</v>
       </c>
-      <c r="E48">
-        <f>C48*E$1</f>
+      <c r="E48" s="6">
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
-      <c r="F48">
-        <f>D48*F$1</f>
+      <c r="F48" s="7">
+        <f t="shared" si="9"/>
         <v>4500000</v>
       </c>
-      <c r="G48" s="3">
-        <f>E48+F48</f>
+      <c r="G48" s="27">
+        <f t="shared" si="7"/>
         <v>20500000</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="11">
         <v>1765960.41</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="9">
         <v>321564</v>
       </c>
-      <c r="J48" s="2">
-        <f t="shared" si="1"/>
+      <c r="J48" s="9">
+        <f t="shared" si="5"/>
         <v>20875244.099999998</v>
       </c>
-      <c r="K48" s="4">
-        <f>G48</f>
+      <c r="K48" s="30">
+        <f t="shared" si="8"/>
         <v>20500000</v>
       </c>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="3:17">
-      <c r="C49">
+      <c r="C49" s="6">
         <v>500</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="7">
         <v>400</v>
       </c>
-      <c r="E49">
-        <f>C49*E$1</f>
+      <c r="E49" s="6">
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
-      <c r="F49">
-        <f>D49*F$1</f>
+      <c r="F49" s="7">
+        <f t="shared" si="9"/>
         <v>6000000</v>
       </c>
-      <c r="G49" s="3">
-        <f>E49+F49</f>
+      <c r="G49" s="27">
+        <f t="shared" si="7"/>
         <v>22000000</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="11">
         <v>1765960.41</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="9">
         <v>417613</v>
       </c>
-      <c r="J49" s="2">
-        <f t="shared" si="1"/>
+      <c r="J49" s="9">
+        <f t="shared" si="5"/>
         <v>21835734.100000001</v>
       </c>
-      <c r="K49" s="4">
-        <f>G49</f>
+      <c r="K49" s="30">
+        <f t="shared" si="8"/>
         <v>22000000</v>
       </c>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="3:17">
-      <c r="C50">
+      <c r="C50" s="6">
         <v>500</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="7">
         <v>500</v>
       </c>
-      <c r="E50">
-        <f>C50*E$1</f>
+      <c r="E50" s="6">
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
-      <c r="F50">
-        <f>D50*F$1</f>
+      <c r="F50" s="7">
+        <f t="shared" si="9"/>
         <v>7500000</v>
       </c>
-      <c r="G50" s="3">
-        <f>E50+F50</f>
+      <c r="G50" s="27">
+        <f t="shared" si="7"/>
         <v>23500000</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="11">
         <v>1765960.41</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="9">
         <v>509297</v>
       </c>
-      <c r="J50" s="2">
-        <f t="shared" si="1"/>
+      <c r="J50" s="9">
+        <f t="shared" si="5"/>
         <v>22752574.100000001</v>
       </c>
-      <c r="K50" s="4">
-        <f>G50</f>
+      <c r="K50" s="30">
+        <f t="shared" si="8"/>
         <v>23500000</v>
       </c>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="3:17">
-      <c r="C51">
+      <c r="C51" s="6">
         <v>500</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="7">
         <v>900</v>
       </c>
-      <c r="E51">
-        <f>C51*E$1</f>
+      <c r="E51" s="6">
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
-      <c r="F51">
-        <f>D51*F$1</f>
+      <c r="F51" s="7">
+        <f t="shared" si="9"/>
         <v>13500000</v>
       </c>
-      <c r="G51" s="3">
-        <f>E51+F51</f>
+      <c r="G51" s="27">
+        <f t="shared" si="7"/>
         <v>29500000</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="11">
         <v>1765960.41</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="9">
         <v>840030</v>
       </c>
-      <c r="J51" s="2">
-        <f t="shared" si="1"/>
+      <c r="J51" s="9">
+        <f t="shared" si="5"/>
         <v>26059904.100000001</v>
       </c>
-      <c r="K51" s="4">
-        <f>G51</f>
+      <c r="K51" s="30">
+        <f t="shared" si="8"/>
         <v>29500000</v>
       </c>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" spans="3:17">
-      <c r="C52">
+      <c r="C52" s="6">
         <v>600</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f>C52*E$1</f>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="6"/>
         <v>19200000</v>
       </c>
-      <c r="F52">
-        <f>D52*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <f>E52+F52</f>
+      <c r="F52" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="27">
+        <f t="shared" si="7"/>
         <v>19200000</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="11">
         <v>1919841.05</v>
       </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="1"/>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="5"/>
         <v>19198410.5</v>
       </c>
-      <c r="K52" s="4">
-        <f>G52</f>
+      <c r="K52" s="30">
+        <f t="shared" si="8"/>
         <v>19200000</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="12">
         <f>J52</f>
         <v>19198410.5</v>
       </c>
     </row>
     <row r="53" spans="3:17">
-      <c r="C53">
+      <c r="C53" s="13">
         <v>800</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f>C53*E$1</f>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="6"/>
         <v>25600000</v>
       </c>
-      <c r="F53">
-        <f>D53*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <f>E53+F53</f>
+      <c r="F53" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="28">
+        <f t="shared" si="7"/>
         <v>25600000</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="15">
         <v>2129812.87</v>
       </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="1"/>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <f t="shared" si="5"/>
         <v>21298128.700000003</v>
       </c>
-      <c r="K53" s="4">
-        <f>G53</f>
+      <c r="K53" s="31">
+        <f t="shared" si="8"/>
         <v>25600000</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="17">
         <f>J53</f>
         <v>21298128.700000003</v>
       </c>
     </row>
     <row r="54" spans="3:17">
       <c r="Q54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
